--- a/Paper_Code/AR_Cov/Results/AR_Full_Results_d1000_n900_laperr.xlsx
+++ b/Paper_Code/AR_Cov/Results/AR_Full_Results_d1000_n900_laperr.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,22 +465,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -497,16 +512,25 @@
         <v>0.05751259638725106</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001818707987336847</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.867</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.339574734042449</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.01073829595420055</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.2819331790091214</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01758854134363229</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0005561985136591633</v>
       </c>
     </row>
     <row r="3">
@@ -522,16 +546,25 @@
         <v>0.05751833615940875</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001818889494869534</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.867</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.339574734042449</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.01073829595420055</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.2819830865126818</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01760004953379192</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.000556562434585671</v>
       </c>
     </row>
     <row r="4">
@@ -547,16 +580,25 @@
         <v>0.05617451490318544</v>
       </c>
       <c r="D4" t="n">
+        <v>0.00177639413549139</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.859</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.3480215510568275</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.01100540776164155</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.2785859236322438</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01670901811014842</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0005283855469307123</v>
       </c>
     </row>
     <row r="5">
@@ -572,16 +614,25 @@
         <v>0.05596216791410929</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001769679134093795</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.869</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.3374003556607492</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.01066953607238853</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.2806974297358172</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01693745687451621</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0005356094149434795</v>
       </c>
     </row>
     <row r="6">
@@ -597,16 +648,25 @@
         <v>0.04832966098684652</v>
       </c>
       <c r="D6" t="n">
+        <v>0.00152831807262216</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.877</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.3284372086107175</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.01038609647557734</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.2474635326824103</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01265902777474953</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0004003136073154146</v>
       </c>
     </row>
     <row r="7">
@@ -622,16 +682,25 @@
         <v>3.521680487726932</v>
       </c>
       <c r="D7" t="n">
+        <v>0.1113653153258976</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.957</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2028570925553257</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.006414904519944158</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.7591482562103086</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>2.888918496637471</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.09135562423963893</v>
       </c>
     </row>
     <row r="8">
@@ -647,16 +716,25 @@
         <v>5.917427915122961</v>
       </c>
       <c r="D8" t="n">
+        <v>0.1871255010165009</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.955</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2073041244162788</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.006555532015023648</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.179159018308209</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>8.285716224173989</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.262017353142001</v>
       </c>
     </row>
     <row r="9">
@@ -672,16 +750,25 @@
         <v>8.117528072621035</v>
       </c>
       <c r="D9" t="n">
+        <v>0.2566987767983918</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.9389999999999999</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.239330315672712</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007568289106528635</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.9673151502061914</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>4.961844822357298</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.1569073103496262</v>
       </c>
     </row>
     <row r="10">
@@ -697,16 +784,25 @@
         <v>9.287036793552559</v>
       </c>
       <c r="D10" t="n">
+        <v>0.2936818898141303</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.946</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.734982301811883</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>14.3957252009905</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.4552328020501523</v>
       </c>
     </row>
     <row r="11">
@@ -722,16 +818,25 @@
         <v>1.618506843193948</v>
       </c>
       <c r="D11" t="n">
+        <v>0.05118168033061866</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.944</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2299217258111986</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007270763371201129</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.550010298028478</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>47.06927845657116</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.488461277434598</v>
       </c>
     </row>
     <row r="12">
@@ -747,16 +852,25 @@
         <v>0.0562504474784575</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001778795334356009</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.949</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.006956938982052379</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.3594961956097705</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01937823433909188</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.00061279357544018</v>
       </c>
     </row>
     <row r="13">
@@ -772,16 +886,25 @@
         <v>0.05640530515519544</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001783692364072549</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.946</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.3576334423601402</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01935829352250788</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0006121629914520892</v>
       </c>
     </row>
     <row r="14">
@@ -797,16 +920,25 @@
         <v>0.05477792308507736</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001732230024423619</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.945</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.22798026230356</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.00720936890441875</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.3531267289463872</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.0187379564527237</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0005925462108765608</v>
       </c>
     </row>
     <row r="15">
@@ -822,16 +954,25 @@
         <v>0.05618345608518718</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001732230024423619</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2374868417407584</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007509993342207436</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.3514519207149624</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01892599082579249</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0005984923798495529</v>
       </c>
     </row>
     <row r="16">
@@ -847,16 +988,25 @@
         <v>0.04767636967261712</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001507659187336464</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.947</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2240334796408786</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.00708456067798138</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.3002121006810115</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01303891727605727</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0004123267681485945</v>
       </c>
     </row>
     <row r="17">
@@ -872,16 +1022,25 @@
         <v>0.05702208562189597</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001803196674983302</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.896</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3052605444534227</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.009653186002558949</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.3007240061749683</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01559956139993617</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0004933014452344313</v>
       </c>
     </row>
     <row r="18">
@@ -897,16 +1056,25 @@
         <v>0.05556620410549263</v>
       </c>
       <c r="D18" t="n">
+        <v>0.001757157659031558</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.881</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3237885112229895</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.01023909175659638</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.2951539197604081</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.01496744857974101</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0004733122827343394</v>
       </c>
     </row>
     <row r="19">
@@ -922,16 +1090,25 @@
         <v>0.05803586796668679</v>
       </c>
       <c r="D19" t="n">
+        <v>0.001835255287595353</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.922</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2681715868618448</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.00848033018225116</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.3313050539113392</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.01987934328383771</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.000628640031652983</v>
       </c>
     </row>
     <row r="20">
@@ -947,16 +1124,25 @@
         <v>0.05634641465426836</v>
       </c>
       <c r="D20" t="n">
+        <v>0.00178183008291777</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.914</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2803640490505157</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.008865889690267975</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.3252542193046981</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.01964063063310569</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0006210912748268886</v>
       </c>
     </row>
     <row r="21">
@@ -972,16 +1158,25 @@
         <v>0.06760986319544735</v>
       </c>
       <c r="D21" t="n">
+        <v>0.002138011599900035</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2374868417407584</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.007509993342207436</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.42006769485594</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.0252426203372844</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0007982417437670644</v>
       </c>
     </row>
     <row r="22">
@@ -997,16 +1192,25 @@
         <v>0.06496793329850671</v>
       </c>
       <c r="D22" t="n">
+        <v>0.002054466440971771</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.2337434491060659</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.007391616873188167</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.4122191192491891</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.02417008497439728</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0007643251975890795</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,22 +1250,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1078,16 +1297,25 @@
         <v>0.03689881413616948</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001166842956295139</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.7360215020789718</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.07868623579010796</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.002488277256018</v>
       </c>
     </row>
     <row r="3">
@@ -1103,16 +1331,25 @@
         <v>0.03690622928325391</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001167077443834859</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.766412526613194</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.07945933222363027</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.002512724711826834</v>
       </c>
     </row>
     <row r="4">
@@ -1128,16 +1365,25 @@
         <v>0.03654040290257496</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001155508997923646</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.7168313556902188</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.07485186311446643</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.002367023745488587</v>
       </c>
     </row>
     <row r="5">
@@ -1153,16 +1399,25 @@
         <v>0.03652220878965994</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001154933649555469</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.7499992974996098</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.07568068664463098</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0023932334468252</v>
       </c>
     </row>
     <row r="6">
@@ -1178,16 +1433,25 @@
         <v>0.03073651754670968</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0009719740278933343</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.5711365255132396</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.055347020242703</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.001750226456703868</v>
       </c>
     </row>
     <row r="7">
@@ -1203,16 +1467,25 @@
         <v>0.03414241251896624</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001079677883729802</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.945</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.22798026230356</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.007209368904418751</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.2175237279256936</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.01175174625532036</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0003716228465116697</v>
       </c>
     </row>
     <row r="8">
@@ -1228,16 +1501,25 @@
         <v>0.03417137287247191</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001080593690519017</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.007451107300260814</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2164069429052471</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.01173328661392224</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0003710391013955899</v>
       </c>
     </row>
     <row r="9">
@@ -1253,16 +1535,25 @@
         <v>0.03438207731107464</v>
       </c>
       <c r="D9" t="n">
+        <v>0.001087256749909934</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.9340000000000001</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2482820976228451</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007851369307324678</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2137137362355164</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.01119655100142303</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0003540660310273595</v>
       </c>
     </row>
     <row r="10">
@@ -1278,16 +1569,25 @@
         <v>0.03524570385552108</v>
       </c>
       <c r="D10" t="n">
+        <v>0.001087256749909934</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.929</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2568248430350927</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.008121514637061242</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.2127075478190167</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01133511237821677</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0003584477264913297</v>
       </c>
     </row>
     <row r="11">
@@ -1303,16 +1603,25 @@
         <v>0.02934438331623771</v>
       </c>
       <c r="D11" t="n">
+        <v>0.0009279508781235621</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.948</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007021111023192841</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.1817886803250651</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.007896753926379585</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.000249717285292371</v>
       </c>
     </row>
     <row r="12">
@@ -1328,16 +1637,25 @@
         <v>0.0346939463184512</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001097118913859192</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.884</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.320224920954007</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01012640113762041</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.1827971849710761</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.009554354692860919</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.00030213522402559</v>
       </c>
     </row>
     <row r="13">
@@ -1353,16 +1671,25 @@
         <v>0.03436008128173972</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001086561174388152</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.891</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3116392144772541</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.00985489725973843</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.1794176057496769</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.009153869453266177</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0002894707687616137</v>
       </c>
     </row>
     <row r="14">
@@ -1378,16 +1705,25 @@
         <v>0.03607029536177962</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001140642892182308</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.924</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2649981132008302</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008379976133617567</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2117227538234044</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01616703230515994</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0005112464508982777</v>
       </c>
     </row>
     <row r="15">
@@ -1403,16 +1739,25 @@
         <v>0.03562007715459696</v>
       </c>
       <c r="D15" t="n">
+        <v>0.00112640574239456</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.922</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2681715868618448</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.00848033018225116</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.2074483593247515</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01601107594012476</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0005063146776071596</v>
       </c>
     </row>
     <row r="16">
@@ -1428,16 +1773,25 @@
         <v>0.03741443192688929</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001183148222502926</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9350000000000001</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.246525860712421</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007795832219846705</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.2255012468975417</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01216885123449253</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0003848128640874813</v>
       </c>
     </row>
     <row r="17">
@@ -1453,16 +1807,25 @@
         <v>0.03634296625217479</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001149265502835057</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9320000000000001</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.251745903640953</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007960904471226871</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.2212951478232668</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01162221142631113</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0003675265955517736</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1839,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1502,22 +1865,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1534,16 +1912,25 @@
         <v>0.1364310631725652</v>
       </c>
       <c r="D2" t="n">
+        <v>0.004314329032236238</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.690480680748883</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.1133326904319579</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00358389435119759</v>
       </c>
     </row>
     <row r="3">
@@ -1559,16 +1946,25 @@
         <v>0.1368667794393725</v>
       </c>
       <c r="D3" t="n">
+        <v>0.004328107590403205</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>3.787543125140887</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.1183508956713229</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00374258393442343</v>
       </c>
     </row>
     <row r="4">
@@ -1584,16 +1980,25 @@
         <v>0.1276255261561713</v>
       </c>
       <c r="D4" t="n">
+        <v>0.004035873502308958</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.579150517550622</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.1110044299201726</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.003510268289162882</v>
       </c>
     </row>
     <row r="5">
@@ -1609,16 +2014,25 @@
         <v>0.1270766927942294</v>
       </c>
       <c r="D5" t="n">
+        <v>0.004018517867512717</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.677651361874605</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.1169827617480729</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.003699319741007308</v>
       </c>
     </row>
     <row r="6">
@@ -1634,16 +2048,25 @@
         <v>0.07424290151505643</v>
       </c>
       <c r="D6" t="n">
+        <v>0.002347766688871441</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>2.536023779045782</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.06912890206140455</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.002186047826607475</v>
       </c>
     </row>
     <row r="7">
@@ -1659,16 +2082,25 @@
         <v>0.2921137635149382</v>
       </c>
       <c r="D7" t="n">
+        <v>0.00923744828590998</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.635</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.4814301610825811</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.01522415843322711</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.7733097134054524</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.133346179252013</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.00421677643717449</v>
       </c>
     </row>
     <row r="8">
@@ -1684,16 +2116,25 @@
         <v>0.1543095413015787</v>
       </c>
       <c r="D8" t="n">
+        <v>0.004879696152088121</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.578</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.4938785275753543</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01561781034588396</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.4691927490670897</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.04698485945362598</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.001485791714163525</v>
       </c>
     </row>
     <row r="9">
@@ -1709,16 +2150,25 @@
         <v>0.2580966650398461</v>
       </c>
       <c r="D9" t="n">
+        <v>0.008161733180194664</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.632</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.4822613399392491</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.01525044261652756</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.7312297640091092</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.1144108951322179</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.003617990177564799</v>
       </c>
     </row>
     <row r="10">
@@ -1734,16 +2184,25 @@
         <v>0.143508257748983</v>
       </c>
       <c r="D10" t="n">
+        <v>0.008161733180194664</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.575</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.4943429983321297</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01563249820086348</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.4616327654011627</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.04443151799724188</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.001405047967700473</v>
       </c>
     </row>
     <row r="11">
@@ -1759,16 +2218,25 @@
         <v>0.1032467520806074</v>
       </c>
       <c r="D11" t="n">
+        <v>0.00326494897589448</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.614</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.4868305660083393</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.01539493423175299</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.3591441194454693</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.02877383553032505</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0009099085729490607</v>
       </c>
     </row>
     <row r="12">
@@ -1784,16 +2252,25 @@
         <v>0.3012787982681737</v>
       </c>
       <c r="D12" t="n">
+        <v>0.009527272132458214</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.6850000000000001</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.4645158770160607</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01468928180681411</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.068002402169284</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.1057972217164248</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.00334560190741731</v>
       </c>
     </row>
     <row r="13">
@@ -1809,16 +2286,25 @@
         <v>0.2775115653088172</v>
       </c>
       <c r="D13" t="n">
+        <v>0.008775686234144308</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.647</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.4779027097642364</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01511261062821378</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.001829992405605</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.103521830069915</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.003273647705698394</v>
       </c>
     </row>
     <row r="14">
@@ -1834,16 +2320,25 @@
         <v>0.2355237748178314</v>
       </c>
       <c r="D14" t="n">
+        <v>0.007447915715449563</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.877</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.3284372086107175</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.01038609647557734</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.237400013580059</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.144184172915167</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.004559503889594874</v>
       </c>
     </row>
     <row r="15">
@@ -1859,16 +2354,25 @@
         <v>0.2174840583379408</v>
       </c>
       <c r="D15" t="n">
+        <v>0.006877449791248269</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.872</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3340898082851376</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.01056484737230027</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.158258760124392</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.1364612428089177</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.004315283396134534</v>
       </c>
     </row>
     <row r="16">
@@ -1884,16 +2388,25 @@
         <v>0.2112219220746489</v>
       </c>
       <c r="D16" t="n">
+        <v>0.006679423655144885</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2337434491060658</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007391616873188166</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.317471729364358</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.1314981104176528</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.004158335369280983</v>
       </c>
     </row>
     <row r="17">
@@ -1909,16 +2422,25 @@
         <v>0.189808731456348</v>
       </c>
       <c r="D17" t="n">
+        <v>0.006002279111893083</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9429999999999999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2318426190328258</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007331507348424335</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.235540722380483</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.1273992282326601</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.004028717333628339</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +2454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1958,22 +2480,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -1990,16 +2527,25 @@
         <v>0.04896124663469532</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001548290564468913</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.321957270296064</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.06055434804672535</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001914896620542203</v>
       </c>
     </row>
     <row r="3">
@@ -2015,16 +2561,25 @@
         <v>0.04874503553126088</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001541453369046202</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.353086337386008</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.06148648700969586</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001944373442729945</v>
       </c>
     </row>
     <row r="4">
@@ -2040,16 +2595,25 @@
         <v>0.04785416558377521</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001513281587715709</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.292952043058825</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.05878050649781323</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.00185880282551417</v>
       </c>
     </row>
     <row r="5">
@@ -2065,16 +2629,25 @@
         <v>0.04773759522397777</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001509595309269456</v>
+      </c>
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.325829755554375</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.06068723034855135</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001919098727887164</v>
       </c>
     </row>
     <row r="6">
@@ -2090,16 +2663,25 @@
         <v>0.04106553308856342</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001298606178888695</v>
+      </c>
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.021357246783361</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.03943442539031298</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.001247026024533634</v>
       </c>
     </row>
     <row r="7">
@@ -2115,16 +2697,25 @@
         <v>0.0506058231510321</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001600296640249406</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.881</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.3237885112229895</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.01023909175659638</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.2567610140220527</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.01560345388192146</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.000493424536322678</v>
       </c>
     </row>
     <row r="8">
@@ -2140,16 +2731,25 @@
         <v>0.04790949627914309</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001515031297934543</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.861</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.345946527659984</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.0109397897603199</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2378686728535724</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.01441354167213471</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0004557962083369759</v>
       </c>
     </row>
     <row r="9">
@@ -2165,16 +2765,25 @@
         <v>0.04818050128736005</v>
       </c>
       <c r="D9" t="n">
+        <v>0.001523601228767325</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.873</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.3329729718760968</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.01052952990403655</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2508893196504753</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.01438316478003457</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0004548356066642395</v>
       </c>
     </row>
     <row r="10">
@@ -2190,16 +2799,25 @@
         <v>0.0459051131731649</v>
       </c>
       <c r="D10" t="n">
+        <v>0.001523601228767325</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.867</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.339574734042449</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01073829595420055</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.2339475797642673</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01369342492274913</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0004330241172440248</v>
       </c>
     </row>
     <row r="11">
@@ -2215,16 +2833,25 @@
         <v>0.03943532643721536</v>
       </c>
       <c r="D11" t="n">
+        <v>0.001247054518138536</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.883</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.3214202856074893</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.01016420188701503</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.2025057279091632</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.00968601367447652</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0003062986465888254</v>
       </c>
     </row>
     <row r="12">
@@ -2240,16 +2867,25 @@
         <v>0.05875875501520372</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001858114983238855</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.788</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.408724846320847</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01292501450676169</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.2426096294250908</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.0130042239180429</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0004112296678385439</v>
       </c>
     </row>
     <row r="13">
@@ -2265,16 +2901,25 @@
         <v>0.05314863398904773</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001680707379320315</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.799</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.4007480505255142</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01267276607532862</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.2363769833526575</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01238025044245716</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0003914978940147196</v>
       </c>
     </row>
     <row r="14">
@@ -2290,16 +2935,25 @@
         <v>0.04968148579927713</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001571066526670267</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.901</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.298662016332844</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.009444522221901962</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2810128948631255</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.02190040728483505</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0006925516870542271</v>
       </c>
     </row>
     <row r="15">
@@ -2315,16 +2969,25 @@
         <v>0.04673533487096517</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001477901054029414</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.904</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2945912422323515</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.009315793041926168</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.2733171786303094</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.02149151965059616</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0006796215247414996</v>
       </c>
     </row>
     <row r="16">
@@ -2340,16 +3003,25 @@
         <v>0.04814866423327861</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001522594452718452</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2374868417407584</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007509993342207436</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.2992890031795273</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01659904998169758</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0005249080493714061</v>
       </c>
     </row>
     <row r="17">
@@ -2365,16 +3037,25 @@
         <v>0.04586654023336462</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001450427355291831</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9379999999999999</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2411555514600482</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007626008130076966</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.2915480596290501</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01569315872039764</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0004962612523899005</v>
       </c>
     </row>
   </sheetData>
@@ -2388,7 +3069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2414,22 +3095,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -2446,16 +3142,25 @@
         <v>0.04479649544046341</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001416589567852121</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.007451107300260814</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.2723735800931927</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01938317065577269</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0006129496754798126</v>
       </c>
     </row>
     <row r="3">
@@ -2471,16 +3176,25 @@
         <v>0.04480311762831862</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001416798979819281</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.963</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1887617546008724</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.005969170796685247</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.3017116147687547</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.02058263437961111</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0006508800488605785</v>
       </c>
     </row>
     <row r="4">
@@ -2496,16 +3210,25 @@
         <v>0.04491079493664883</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001420204035285678</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.929</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.2568248430350927</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.008121514637061242</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.2697237544524663</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01835989723386704</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0005805909286564498</v>
       </c>
     </row>
     <row r="5">
@@ -2521,16 +3244,25 @@
         <v>0.04489220706201368</v>
       </c>
       <c r="D5" t="n">
+        <v>0.00141961623507859</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.95</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.2179449471770337</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.006892024376045113</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.2987012101841986</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01954886498103661</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0006181893901118003</v>
       </c>
     </row>
     <row r="6">
@@ -2546,16 +3278,25 @@
         <v>0.03802005641402641</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001202299750364172</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.948</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.007021111023192841</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.2513451156849701</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01435771895390711</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0004540309389891656</v>
       </c>
     </row>
     <row r="7">
@@ -2571,16 +3312,25 @@
         <v>0.04452676115447273</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001408059820784423</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.948</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.007021111023192841</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.2842876091115572</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.01536656314252397</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0004859333933917036</v>
       </c>
     </row>
     <row r="8">
@@ -2596,16 +3346,25 @@
         <v>0.04457874558034428</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001409703712670526</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2337434491060658</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.007391616873188166</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2828157815197471</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.01534348018726226</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0004852034462541557</v>
       </c>
     </row>
     <row r="9">
@@ -2621,16 +3380,25 @@
         <v>0.0438330462632948</v>
       </c>
       <c r="D9" t="n">
+        <v>0.001386122629755442</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.9360000000000001</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2447529366524537</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007739767438366609</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2792752196832375</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.0147451980330752</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0004662841033475243</v>
       </c>
     </row>
     <row r="10">
@@ -2646,16 +3414,25 @@
         <v>0.04511191400048315</v>
       </c>
       <c r="D10" t="n">
+        <v>0.001386122629755442</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.9350000000000001</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.246525860712421</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.007795832219846705</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.2779500567737146</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01491556699766458</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0004716716430545945</v>
       </c>
     </row>
     <row r="11">
@@ -2671,16 +3448,25 @@
         <v>0.0381520576186917</v>
       </c>
       <c r="D11" t="n">
+        <v>0.001206473994970456</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.947</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2240334796408786</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.00708456067798138</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.2375533512470429</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.01031830011907795</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0003262932995747295</v>
       </c>
     </row>
     <row r="12">
@@ -2696,16 +3482,25 @@
         <v>0.04523453296996948</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001430441530790845</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.901</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.298662016332844</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.009444522221901962</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.2436672994151111</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01300111029410287</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0004111312064042665</v>
       </c>
     </row>
     <row r="13">
@@ -2721,16 +3516,25 @@
         <v>0.04437797386488742</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001403354753564697</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.891</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3116392144772541</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.00985489725973843</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.2390234542797723</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01258091346416161</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0003978434159222983</v>
       </c>
     </row>
     <row r="14">
@@ -2746,16 +3550,25 @@
         <v>0.04579664300022489</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001448217010703177</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.918</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2743647207641682</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008676174272108645</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2669814790826948</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01402541881463492</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0004435226859202528</v>
       </c>
     </row>
     <row r="15">
@@ -2771,16 +3584,25 @@
         <v>0.04500093488897017</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001423054510860822</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.917</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2758822212466762</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008724161850859944</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.261996245063583</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01342538026813995</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0004245478010120433</v>
       </c>
     </row>
     <row r="16">
@@ -2796,16 +3618,25 @@
         <v>0.04996894261067757</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001580156709199815</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9370000000000001</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2429629601400181</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007683163410991596</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.3107453791047308</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01732780648651499</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0005479533535202708</v>
       </c>
     </row>
     <row r="17">
@@ -2821,16 +3652,25 @@
         <v>0.04853959979985489</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001534956920805947</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9320000000000001</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.251745903640953</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007960904471226871</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.304941630025764</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01658303316367181</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0005244015531131073</v>
       </c>
     </row>
   </sheetData>
@@ -2844,7 +3684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2870,22 +3710,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -2902,16 +3757,25 @@
         <v>0.1813917095000633</v>
       </c>
       <c r="D2" t="n">
+        <v>0.005736109506918025</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.888</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.3153664535108324</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.00997276290703835</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.001815888112977</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.04106007283918083</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00129843351064228</v>
       </c>
     </row>
     <row r="3">
@@ -2927,16 +3791,25 @@
         <v>0.1818347436037371</v>
       </c>
       <c r="D3" t="n">
+        <v>0.005750119475405428</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.913</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.2818350581457176</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.008912407082264592</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.082801017801568</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.04325925448454832</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00136797774052026</v>
       </c>
     </row>
     <row r="4">
@@ -2952,16 +3825,25 @@
         <v>0.1728309497552367</v>
       </c>
       <c r="D4" t="n">
+        <v>0.005465394513966685</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.901</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.298662016332844</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.009444522221901962</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.981313026977596</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.0393976913049373</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001245864390758132</v>
       </c>
     </row>
     <row r="5">
@@ -2977,16 +3859,25 @@
         <v>0.1737202976973993</v>
       </c>
       <c r="D5" t="n">
+        <v>0.005493518165262861</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.924</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.2649981132008302</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.008379976133617566</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.056388546502264</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.04159932409971977</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001315486132786479</v>
       </c>
     </row>
     <row r="6">
@@ -3002,16 +3893,25 @@
         <v>0.09931216767155816</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003140526492106647</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.986</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1174904251417961</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.003715373467095873</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.7959473995303711</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.0231145465742944</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0007309461425681273</v>
       </c>
     </row>
     <row r="7">
@@ -3027,16 +3927,25 @@
         <v>0.3422015082685825</v>
       </c>
       <c r="D7" t="n">
+        <v>0.01082136184873663</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.774</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.4182391660282428</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.01322588371338566</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.9899942479652063</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.2170911589930297</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.006865025223037195</v>
       </c>
     </row>
     <row r="8">
@@ -3052,16 +3961,25 @@
         <v>0.1719769315216996</v>
       </c>
       <c r="D8" t="n">
+        <v>0.005438388086153779</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.736</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.4407992740465891</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01393929696935968</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.6123876296906736</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.06303501002889358</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.001993342040228599</v>
       </c>
     </row>
     <row r="9">
@@ -3077,16 +3995,25 @@
         <v>0.3007152505498097</v>
       </c>
       <c r="D9" t="n">
+        <v>0.009509451188856002</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.776</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.4169220550654523</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.01318423300764971</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.9402958730023157</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.1803799868731404</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.005704116028303973</v>
       </c>
     </row>
     <row r="10">
@@ -3102,16 +4029,25 @@
         <v>0.1554691640376792</v>
       </c>
       <c r="D10" t="n">
+        <v>0.009509451188856002</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.753</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.4312667388055796</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01363785173698556</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.6024776335905144</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.05851374073177282</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.001850366951289698</v>
       </c>
     </row>
     <row r="11">
@@ -3127,16 +4063,25 @@
         <v>0.1125119800046725</v>
       </c>
       <c r="D11" t="n">
+        <v>0.003557941208700871</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.792</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.4058768286069063</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.0128349522788361</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.4691637468530646</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.03774946016678204</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.00119374274568831</v>
       </c>
     </row>
     <row r="12">
@@ -3152,16 +4097,25 @@
         <v>0.2935958389917377</v>
       </c>
       <c r="D12" t="n">
+        <v>0.009284315627619647</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.842</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3647410040014695</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01153412328701232</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.423737049846427</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.1428895677463508</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.004518564879554014</v>
       </c>
     </row>
     <row r="13">
@@ -3177,16 +4131,25 @@
         <v>0.2632908452869503</v>
       </c>
       <c r="D13" t="n">
+        <v>0.00832598758177772</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.86</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3469870314579495</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01097269337947616</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.334524712542729</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.1375700472570082</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.004350346871491454</v>
       </c>
     </row>
     <row r="14">
@@ -3202,16 +4165,25 @@
         <v>0.2596709724366239</v>
       </c>
       <c r="D14" t="n">
+        <v>0.008211517151305348</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.928</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2584879107424562</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008174105455644672</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.559890731020202</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.155305834734465</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.00491120171674601</v>
       </c>
     </row>
     <row r="15">
@@ -3227,16 +4199,25 @@
         <v>0.2359902255001151</v>
       </c>
       <c r="D15" t="n">
+        <v>0.007462666181171122</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9370000000000001</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.242962960140018</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007683163410991595</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.46286094731519</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.1506352302211854</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.004763504233627754</v>
       </c>
     </row>
     <row r="16">
@@ -3252,16 +4233,25 @@
         <v>0.245168599046017</v>
       </c>
       <c r="D16" t="n">
+        <v>0.007752911837379981</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.979</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.1433840995368733</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.004534203347888138</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.815474587859142</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.1829138061091051</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.005784242427951935</v>
       </c>
     </row>
     <row r="17">
@@ -3277,16 +4267,25 @@
         <v>0.2261490218124513</v>
       </c>
       <c r="D17" t="n">
+        <v>0.007151459995464462</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.978</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.1466833323864712</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.004638534251247909</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.702579919539947</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.1774937962660685</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.00561284666750666</v>
       </c>
     </row>
   </sheetData>
@@ -3300,7 +4299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3326,22 +4325,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -3358,16 +4372,25 @@
         <v>0.05714823151296639</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001807185758315842</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.958</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.2005891323078097</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.006343185319695461</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.3854110956903087</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01982402029375812</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0006268905650967591</v>
       </c>
     </row>
     <row r="3">
@@ -3383,16 +4406,25 @@
         <v>0.05734339267059322</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001813357296004801</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.974</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1591351626762608</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.005032295698784005</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.4155449171036116</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.02118941491071022</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0006700681340417769</v>
       </c>
     </row>
     <row r="4">
@@ -3408,16 +4440,25 @@
         <v>0.0582889343622556</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001843257949687819</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.958</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.2005891323078097</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.006343185319695461</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.381655868360528</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01861148058294621</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0005885466927010837</v>
       </c>
     </row>
     <row r="5">
@@ -3433,16 +4474,25 @@
         <v>0.05870271807776378</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001856342939684749</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.97</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1705872210923198</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.005394441583704471</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.4104279548060651</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01997132811859019</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0006315488475331034</v>
       </c>
     </row>
     <row r="6">
@@ -3458,16 +4508,25 @@
         <v>0.04685013376591556</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001481531313838551</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.969</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1733176274935703</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.005480784615363023</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.3425569203310834</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01431504451252797</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0004526814546628315</v>
       </c>
     </row>
     <row r="7">
@@ -3483,16 +4542,25 @@
         <v>0.06245642518397727</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001975045580932691</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.895</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.3065534211193866</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.009694070352540258</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.3354957504932999</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.02039262192952018</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0006448713275998144</v>
       </c>
     </row>
     <row r="8">
@@ -3508,16 +4576,25 @@
         <v>0.06041735780461365</v>
       </c>
       <c r="D8" t="n">
+        <v>0.001910564608719294</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.883</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3214202856074893</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01016420188701503</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.3108570593561936</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.01886850007206324</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0005966743625877106</v>
       </c>
     </row>
     <row r="9">
@@ -3533,16 +4610,25 @@
         <v>0.05869520366975398</v>
       </c>
       <c r="D9" t="n">
+        <v>0.001856105313238961</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.903</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2959577672574247</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.009359006357514668</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.327715612641659</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.01894333180245386</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0005990407496805705</v>
       </c>
     </row>
     <row r="10">
@@ -3558,16 +4644,25 @@
         <v>0.05655197673180425</v>
       </c>
       <c r="D10" t="n">
+        <v>0.001856105313238961</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.893</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3091132478558627</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.009775019181566858</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.3055616111806216</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01809239237869301</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0005721316823814154</v>
       </c>
     </row>
     <row r="11">
@@ -3583,16 +4678,25 @@
         <v>0.04824777578749668</v>
       </c>
       <c r="D11" t="n">
+        <v>0.001525728635256136</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.909</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2876091097305508</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.009094998625618368</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.2645692897916131</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.0126563474560451</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0004002288481958031</v>
       </c>
     </row>
     <row r="12">
@@ -3608,16 +4712,25 @@
         <v>0.06552290979626053</v>
       </c>
       <c r="D12" t="n">
+        <v>0.002072016338779425</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.869</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3374003556607491</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01066953607238853</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.3234017508308983</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01779440158178986</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0005627083859815896</v>
       </c>
     </row>
     <row r="13">
@@ -3633,16 +4746,25 @@
         <v>0.06103406644185878</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001930066648183226</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.877</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3284372086107175</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01038609647557734</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.31489625219347</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01682461054707036</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0005320409007403391</v>
       </c>
     </row>
     <row r="14">
@@ -3658,16 +4780,25 @@
         <v>0.06160507832908502</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001948123629529887</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.921</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.26973876250921</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008529888627643386</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.3543383571744182</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.0190869256132237</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0006035815846799295</v>
       </c>
     </row>
     <row r="15">
@@ -3683,16 +4814,25 @@
         <v>0.05873346665920869</v>
       </c>
       <c r="D15" t="n">
+        <v>0.0018573152952066</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.922</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2681715868618448</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.00848033018225116</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.3451642313032696</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01803312622862151</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0005702575221576625</v>
       </c>
     </row>
     <row r="16">
@@ -3708,16 +4848,25 @@
         <v>0.06383544650247344</v>
       </c>
       <c r="D16" t="n">
+        <v>0.002018654064016455</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.954</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2094850830011531</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.006624499981130651</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.4124136899015799</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.02337351844753775</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0007391355522618213</v>
       </c>
     </row>
     <row r="17">
@@ -3733,16 +4882,25 @@
         <v>0.0604218604962666</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001910706996331542</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.947</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2240334796408786</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.00708456067798138</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.4017374660346172</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.02214850234408981</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.000700397141689022</v>
       </c>
     </row>
   </sheetData>
@@ -3756,7 +4914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3782,22 +4940,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -3814,16 +4987,25 @@
         <v>0.2198562472279047</v>
       </c>
       <c r="D2" t="n">
+        <v>0.006952464990572592</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.715</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.4514144437210666</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.01427497810856465</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.8450099398431791</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.04279779956816398</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001353385254787689</v>
       </c>
     </row>
     <row r="3">
@@ -3839,16 +5021,25 @@
         <v>0.2190688255309984</v>
       </c>
       <c r="D3" t="n">
+        <v>0.006927564530160005</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.731</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.4434399621143769</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.01402280285820206</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.8600630822548889</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.04301692077880787</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001360314475880571</v>
       </c>
     </row>
     <row r="4">
@@ -3864,16 +5055,25 @@
         <v>0.2107848488017802</v>
       </c>
       <c r="D4" t="n">
+        <v>0.006665602184678391</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.749</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.4335885146080325</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.01371127273450572</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.8276234223218124</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.0411162113750804</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001300208767021778</v>
       </c>
     </row>
     <row r="5">
@@ -3889,16 +5089,25 @@
         <v>0.2103850949005122</v>
       </c>
       <c r="D5" t="n">
+        <v>0.006652960856362942</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.751</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.4324338099640221</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.01367475776750725</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.8416825486428932</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.0412706697209786</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001305093168788382</v>
       </c>
     </row>
     <row r="6">
@@ -3914,16 +5123,25 @@
         <v>0.1223355334913269</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003868589246044035</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.908</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.289025950392002</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.009139803061335623</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.6733349728284623</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.02344269910054092</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.000741323236596899</v>
       </c>
     </row>
     <row r="7">
@@ -3939,16 +5157,25 @@
         <v>0.7619093686732303</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0240936897562835</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.9360000000000001</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2447529366524537</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.007739767438366609</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.036255737168289</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>1.36845043209836</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.04327420230472409</v>
       </c>
     </row>
     <row r="8">
@@ -3964,16 +5191,25 @@
         <v>3.086043759493443</v>
       </c>
       <c r="D8" t="n">
+        <v>0.09758927238948154</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.769</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.4214724190264411</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01332812815064441</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.6093880849843812</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.6629188783069569</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.02096333559373971</v>
       </c>
     </row>
     <row r="9">
@@ -3989,16 +5225,25 @@
         <v>0.3751788180881878</v>
       </c>
       <c r="D9" t="n">
+        <v>0.01186419595008652</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.9370000000000001</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2429629601400181</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007683163410991596</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.9960239617466866</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.5826574992663122</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01842524793459433</v>
       </c>
     </row>
     <row r="10">
@@ -4014,16 +5259,25 @@
         <v>1.617528515769765</v>
       </c>
       <c r="D10" t="n">
+        <v>0.05115074290104044</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.774</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.4182391660282427</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01322588371338566</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.624812215924377</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.5566185370710137</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01760182365015272</v>
       </c>
     </row>
     <row r="11">
@@ -4039,16 +5293,25 @@
         <v>5.278732800990865</v>
       </c>
       <c r="D11" t="n">
+        <v>0.1669281881057147</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.953</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.368022137765663</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>15.94034799508668</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5040780636017241</v>
       </c>
     </row>
     <row r="12">
@@ -4064,16 +5327,25 @@
         <v>0.4232392528063358</v>
       </c>
       <c r="D12" t="n">
+        <v>0.01338400034055833</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.771</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.4201892430798294</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01328755056434405</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.221758773596074</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.3361185326355685</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01062900126922035</v>
       </c>
     </row>
     <row r="13">
@@ -4089,16 +5361,25 @@
         <v>0.211961944008371</v>
       </c>
       <c r="D13" t="n">
+        <v>0.006702825203435323</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.754</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.4306785344082056</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01361925108073127</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.77374478970335</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.08431887869687479</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.002666397064335746</v>
       </c>
     </row>
     <row r="14">
@@ -4114,16 +5395,25 @@
         <v>0.3793210999872962</v>
       </c>
       <c r="D14" t="n">
+        <v>0.01199518640520323</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.781</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.4135686158305535</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.01307818794787718</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.166132869315852</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.2752094150280832</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.008702885850113154</v>
       </c>
     </row>
     <row r="15">
@@ -4139,16 +5429,25 @@
         <v>0.189289119328318</v>
       </c>
       <c r="D15" t="n">
+        <v>0.01199518640520323</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.782</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.4128873938497033</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.0130566458173606</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.7612886471911977</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.07680395614013479</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.002428754347145003</v>
       </c>
     </row>
     <row r="16">
@@ -4164,16 +5463,25 @@
         <v>0.1393478261469198</v>
       </c>
       <c r="D16" t="n">
+        <v>0.004406565176174315</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.8149999999999999</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.3882975663070785</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.01227904719430624</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.5930482981529813</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.04851450057273422</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.001534163213553835</v>
       </c>
     </row>
     <row r="17">
@@ -4189,16 +5497,25 @@
         <v>0.36196482689959</v>
       </c>
       <c r="D17" t="n">
+        <v>0.01144633285871288</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.837</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3693656724710622</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01168036814488311</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.757080625438169</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.1747624152733904</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.005526472816561116</v>
       </c>
     </row>
     <row r="18">
@@ -4214,16 +5531,25 @@
         <v>0.3380541944889956</v>
       </c>
       <c r="D18" t="n">
+        <v>0.01069021227158767</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.845</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3619046835839513</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.01144443096007835</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.648033847506018</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.1695513867232639</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.005361685624855471</v>
       </c>
     </row>
     <row r="19">
@@ -4239,16 +5565,25 @@
         <v>0.3222498011603654</v>
       </c>
       <c r="D19" t="n">
+        <v>0.01019043347203126</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.9360000000000001</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2447529366524537</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.007739767438366609</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.936100400160601</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.2050104459539737</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.006482999533414078</v>
       </c>
     </row>
     <row r="20">
@@ -4264,16 +5599,25 @@
         <v>0.3041981662450017</v>
       </c>
       <c r="D20" t="n">
+        <v>0.009619590653807556</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.924</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2649981132008302</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.008379976133617567</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.816281830853996</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.1979184564637918</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.006258731134104568</v>
       </c>
     </row>
     <row r="21">
@@ -4289,16 +5633,25 @@
         <v>0.311738381706318</v>
       </c>
       <c r="D21" t="n">
+        <v>0.009858033202869322</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.983</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.1292710331048685</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.004087909000944127</v>
+      </c>
+      <c r="H21" t="n">
         <v>2.454164254061232</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.2532253021184825</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.008007687158786657</v>
       </c>
     </row>
     <row r="22">
@@ -4314,16 +5667,25 @@
         <v>0.2940935684724617</v>
       </c>
       <c r="D22" t="n">
+        <v>0.009300055215796653</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.982</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.132951118836962</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.004204283529925163</v>
+      </c>
+      <c r="H22" t="n">
         <v>2.301546938167907</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.245369993101869</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.007759280476617096</v>
       </c>
     </row>
   </sheetData>
@@ -4337,7 +5699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4363,22 +5725,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -4395,16 +5772,25 @@
         <v>0.0720068681692225</v>
       </c>
       <c r="D2" t="n">
+        <v>0.002277057105902219</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.826</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.3791094828674165</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.01198849448429618</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.3442608872190086</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.01998908339133506</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0006321103185566166</v>
       </c>
     </row>
     <row r="3">
@@ -4420,16 +5806,25 @@
         <v>0.07225029201561418</v>
       </c>
       <c r="D3" t="n">
+        <v>0.002284754843816186</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.828</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.3773804446443933</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.01193381749483375</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.3448115642949872</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.01999349918040289</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0006322499580678287</v>
       </c>
     </row>
     <row r="4">
@@ -4445,16 +5840,25 @@
         <v>0.07427014225384543</v>
       </c>
       <c r="D4" t="n">
+        <v>0.00234862811666863</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.847</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.3599874997829786</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.01138380428503583</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.3408696319130755</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.01893496342564898</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.000598776118370351</v>
       </c>
     </row>
     <row r="5">
@@ -4470,16 +5874,25 @@
         <v>0.07482907912303402</v>
       </c>
       <c r="D5" t="n">
+        <v>0.002366303252417426</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.834</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.3720806364217305</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.01176622284337671</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.3421965959143305</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.01911793123456912</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0006045620685171321</v>
       </c>
     </row>
     <row r="6">
@@ -4495,16 +5908,25 @@
         <v>0.05999854458885452</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001897320571959511</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.877</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.3284372086107175</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.01038609647557734</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.3003719081313388</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01418779984506481</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0004486576249698884</v>
       </c>
     </row>
     <row r="7">
@@ -4520,16 +5942,25 @@
         <v>0.09289489341502431</v>
       </c>
       <c r="D7" t="n">
+        <v>0.002937594461900541</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.956</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2050950998927083</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.006485676526007137</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.6111750474920252</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.2238127872208676</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.007077581770885686</v>
       </c>
     </row>
     <row r="8">
@@ -4545,16 +5976,25 @@
         <v>0.8274965262506278</v>
       </c>
       <c r="D8" t="n">
+        <v>0.02616773778829297</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.929</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2568248430350927</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.008121514637061242</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.5612908367000998</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.2956177792947289</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.009348254994123076</v>
       </c>
     </row>
     <row r="9">
@@ -4570,16 +6010,25 @@
         <v>6.096136053149424</v>
       </c>
       <c r="D9" t="n">
+        <v>0.1927767485422146</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2374868417407584</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007509993342207436</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.7645346819556853</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>4.618480659266848</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.1460491821271928</v>
       </c>
     </row>
     <row r="10">
@@ -4595,16 +6044,25 @@
         <v>0.1188393630941371</v>
       </c>
       <c r="D10" t="n">
+        <v>0.003758030630612283</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.927</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2601365026289083</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.008226238508577297</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.5694271880514341</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.2355234011984799</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.007447903900568274</v>
       </c>
     </row>
     <row r="11">
@@ -4620,16 +6078,25 @@
         <v>2.429840510220995</v>
       </c>
       <c r="D11" t="n">
+        <v>0.07683830363243989</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.931</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2534541378632434</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.008014923580421713</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.879009100651475</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>3.640598590742885</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1151258359314671</v>
       </c>
     </row>
     <row r="12">
@@ -4645,16 +6112,25 @@
         <v>0.07836810298837228</v>
       </c>
       <c r="D12" t="n">
+        <v>0.002478217013499045</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.896</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3052605444534227</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.009653186002558949</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.4244054519053976</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.02571127661857494</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0008130619566532912</v>
       </c>
     </row>
     <row r="13">
@@ -4670,16 +6146,25 @@
         <v>0.07513796775885376</v>
       </c>
       <c r="D13" t="n">
+        <v>0.002376071168742752</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.897</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3039588787977742</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.009612023720320296</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.3933275639311483</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.02387519251202035</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0007549998791298133</v>
       </c>
     </row>
     <row r="14">
@@ -4695,16 +6180,25 @@
         <v>0.07297009753111934</v>
       </c>
       <c r="D14" t="n">
+        <v>0.002307517092829665</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.917</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2758822212466762</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008724161850859944</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.4145103358735757</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.0240790029484785</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0007614449310310208</v>
       </c>
     </row>
     <row r="15">
@@ -4720,16 +6214,25 @@
         <v>0.07008432385414423</v>
       </c>
       <c r="D15" t="n">
+        <v>0.002307517092829665</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.895</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.3065534211193866</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.009694070352540258</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.3865518186603822</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.02299122623422495</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0007270464110036673</v>
       </c>
     </row>
     <row r="16">
@@ -4745,16 +6248,25 @@
         <v>0.05882254676615011</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001860132255528062</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.915</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2788816953476868</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.008819013550278738</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.3344639539689766</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.01599254684623717</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0005057287362105206</v>
       </c>
     </row>
     <row r="17">
@@ -4770,16 +6282,25 @@
         <v>0.08320721811504229</v>
       </c>
       <c r="D17" t="n">
+        <v>0.00263124327009956</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.857</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.3500728495613449</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.01107027551599327</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.3991188780648305</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.02119221086749187</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0006701565499584709</v>
       </c>
     </row>
     <row r="18">
@@ -4795,16 +6316,25 @@
         <v>0.07833528784856582</v>
       </c>
       <c r="D18" t="n">
+        <v>0.002477179307663792</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.866</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.3406523154185217</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.01077237206932624</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.3888412067894373</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.01998724116083147</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0006320520621129526</v>
       </c>
     </row>
     <row r="19">
@@ -4820,16 +6350,25 @@
         <v>0.07822855730787275</v>
       </c>
       <c r="D19" t="n">
+        <v>0.002473804191618878</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.912</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2832948993540124</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.008958571314668427</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.4397136639139292</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.02696103476769374</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.000852582779409009</v>
       </c>
     </row>
     <row r="20">
@@ -4845,16 +6384,25 @@
         <v>0.0746145505060949</v>
       </c>
       <c r="D20" t="n">
+        <v>0.002359519261889292</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.911</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2847437444440176</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.009004387819280108</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.4285103889041809</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.02634301647230213</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0008330393249180866</v>
       </c>
     </row>
     <row r="21">
@@ -4870,16 +6418,25 @@
         <v>0.08435725644858057</v>
       </c>
       <c r="D21" t="n">
+        <v>0.002667610675404413</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.953</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.5574831010400971</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.03365047191448284</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.001064121355892926</v>
       </c>
     </row>
     <row r="22">
@@ -4895,16 +6452,25 @@
         <v>0.07988746512688309</v>
       </c>
       <c r="D22" t="n">
+        <v>0.002526263462982229</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.956</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.2050950998927083</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.006485676526007137</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.5430582227234629</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.03207830183463219</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.001014404972677957</v>
       </c>
     </row>
   </sheetData>
@@ -4918,7 +6484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4944,22 +6510,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -4976,16 +6557,25 @@
         <v>0.04337510075374162</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001371641121211097</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.989</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.3567474700428852</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.02703625347861963</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0008549614039008849</v>
       </c>
     </row>
     <row r="3">
@@ -5001,16 +6591,25 @@
         <v>0.04338102236540663</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001371828379013902</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.994</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.07722693830523131</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.002442130217658346</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.3913848435439297</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.02829385508571548</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0008947302585759954</v>
       </c>
     </row>
     <row r="4">
@@ -5026,16 +6625,25 @@
         <v>0.04306107042997395</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001361710610436438</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.988</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1088852607105296</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.003443254274665176</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.3524613443919997</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.02572399604851936</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0008134641803449244</v>
       </c>
     </row>
     <row r="5">
@@ -5051,16 +6659,25 @@
         <v>0.04359818407539172</v>
       </c>
       <c r="D5" t="n">
+        <v>0.0013786956352552</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.993</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.08337265738837883</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.002636474919281425</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.3865017865951242</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.0270580491564152</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0008556506437506964</v>
       </c>
     </row>
     <row r="6">
@@ -5076,16 +6693,25 @@
         <v>0.03675605756803387</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001162328597232564</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.991</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.3194457159810305</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01961055136677658</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0006201400849074206</v>
       </c>
     </row>
     <row r="7">
@@ -5101,16 +6727,25 @@
         <v>0.0381930890552491</v>
       </c>
       <c r="D7" t="n">
+        <v>0.001207771522922357</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.9360000000000001</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.2447529366524537</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.007739767438366608</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.2411765473708116</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.01695364793416052</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.000536121421205556</v>
       </c>
     </row>
     <row r="8">
@@ -5126,16 +6761,25 @@
         <v>0.03814968757568885</v>
       </c>
       <c r="D8" t="n">
+        <v>0.00120639904763004</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.9360000000000001</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.2447529366524537</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.007739767438366608</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.241071313795653</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.01838215908904494</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0005812949103294795</v>
       </c>
     </row>
     <row r="9">
@@ -5151,16 +6795,25 @@
         <v>0.03837071468871647</v>
       </c>
       <c r="D9" t="n">
+        <v>0.001213388538648228</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.9419999999999999</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2337434491060658</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.007391616873188166</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2370193431586966</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.01703492717350343</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0005386916964336517</v>
       </c>
     </row>
     <row r="10">
@@ -5176,16 +6829,25 @@
         <v>0.03928327913352778</v>
       </c>
       <c r="D10" t="n">
+        <v>0.001213388538648228</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.93</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2551470164434614</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.008068457101577723</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.2367838393563948</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.01818382143592974</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0005750229230333152</v>
       </c>
     </row>
     <row r="11">
@@ -5201,16 +6863,25 @@
         <v>0.03257884281691743</v>
       </c>
       <c r="D11" t="n">
+        <v>0.00103023346834075</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.9360000000000001</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2447529366524537</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.007739767438366608</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.2015461061659022</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.0128198287193727</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0004053985796645729</v>
       </c>
     </row>
     <row r="12">
@@ -5226,16 +6897,25 @@
         <v>0.0451665634012722</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001428292144304218</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.916</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.2773878151613729</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.008771772910877253</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.2596467429758295</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01371250597726144</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0004336275131681923</v>
       </c>
     </row>
     <row r="13">
@@ -5251,16 +6931,25 @@
         <v>0.04450128321045381</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001407254137452443</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.916</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.2773878151613729</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.008771772910877253</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.2547760083453993</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.0131488948426963</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0004158045641696171</v>
       </c>
     </row>
     <row r="14">
@@ -5276,16 +6965,25 @@
         <v>0.04833214689397466</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001528396683907926</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.926</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2617708921939183</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.00827792244467173</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.2918793566271891</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.01545651509723665</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0004887779239604675</v>
       </c>
     </row>
     <row r="15">
@@ -5301,16 +6999,25 @@
         <v>0.04821413117655739</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001524664699240552</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.929</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2568248430350927</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008121514637061242</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.2864321098187056</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01474989276683584</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0004664325638644415</v>
       </c>
     </row>
     <row r="16">
@@ -5326,16 +7033,25 @@
         <v>0.05674090775012402</v>
       </c>
       <c r="D16" t="n">
+        <v>0.00179430504995892</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.9330000000000001</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2500219990320852</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007906389820898032</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.3538729889888878</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.02018713087683581</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0006383731299471319</v>
       </c>
     </row>
     <row r="17">
@@ -5351,16 +7067,25 @@
         <v>0.05639954246812993</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001783510131906851</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9370000000000001</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.242962960140018</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.007683163410991595</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.3472693667663767</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.01930928772036735</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0006106132919188129</v>
       </c>
     </row>
   </sheetData>
@@ -5374,7 +7099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5400,22 +7125,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -5432,16 +7172,25 @@
         <v>0.1833085958699067</v>
       </c>
       <c r="D2" t="n">
+        <v>0.005796726776362395</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.979</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1433840995368733</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.004534203347888138</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.39524060197426</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.05256327225304584</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001662196615911553</v>
       </c>
     </row>
     <row r="3">
@@ -5457,16 +7206,25 @@
         <v>0.1844401948624114</v>
       </c>
       <c r="D3" t="n">
+        <v>0.005832511078505064</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.99</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.099498743710662</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003146426544510455</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.491821078052458</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.05499145740426943</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001738982572496222</v>
       </c>
     </row>
     <row r="4">
@@ -5482,16 +7240,25 @@
         <v>0.1812210519017425</v>
       </c>
       <c r="D4" t="n">
+        <v>0.005730712839810945</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.978</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1466833323864712</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.004638534251247909</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.36513159203606</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.05012382989410166</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001585054675161977</v>
       </c>
     </row>
     <row r="5">
@@ -5507,16 +7274,25 @@
         <v>0.1806436759710118</v>
       </c>
       <c r="D5" t="n">
+        <v>0.00571245460973826</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.987</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1132740040786058</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.003582038525755969</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.455187536966482</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.05261617753534718</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.001663869627834817</v>
       </c>
     </row>
     <row r="6">
@@ -5532,16 +7308,25 @@
         <v>0.0993172581941132</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003140687468564191</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.999</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03160696125855823</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.0009994998749374613</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.073802109753922</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.02884426976725786</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0009121358990886971</v>
       </c>
     </row>
     <row r="7">
@@ -5557,16 +7342,25 @@
         <v>0.3226228332464192</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0102022297823538</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.7</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.4582575694955839</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.01449137674618944</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.056815556900613</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.1839443167808497</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.005816830036710166</v>
       </c>
     </row>
     <row r="8">
@@ -5582,16 +7376,25 @@
         <v>0.1946863078991209</v>
       </c>
       <c r="D8" t="n">
+        <v>0.006156521622100529</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.708</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.4546823066713725</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01437831700860709</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.6618238950552536</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.08462321588211845</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.002676021051156292</v>
       </c>
     </row>
     <row r="9">
@@ -5607,16 +7410,25 @@
         <v>0.2835762174024146</v>
       </c>
       <c r="D9" t="n">
+        <v>0.008967467372467074</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.6830000000000001</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.4653074252577537</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.01471431276003063</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.998891110372051</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.1613435945728459</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.005102132447289749</v>
       </c>
     </row>
     <row r="10">
@@ -5632,16 +7444,25 @@
         <v>0.1810218383287231</v>
       </c>
       <c r="D10" t="n">
+        <v>0.008967467372467074</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.6879999999999999</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.4633098315382483</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.01465114330009778</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.6519965277506328</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.0845565663025888</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.002673913406392229</v>
       </c>
     </row>
     <row r="11">
@@ -5657,16 +7478,25 @@
         <v>0.1318643130804038</v>
       </c>
       <c r="D11" t="n">
+        <v>0.004169915714276099</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.757</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.4288950920679788</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.0135628536820243</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.5186444835391457</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.05379473532211548</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.001701138897437966</v>
       </c>
     </row>
     <row r="12">
@@ -5682,16 +7512,25 @@
         <v>0.3196898995451358</v>
       </c>
       <c r="D12" t="n">
+        <v>0.01010948227513056</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.86</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3469870314579494</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01097269337947616</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.51706260051841</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.1512352268243359</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.004782477792170951</v>
       </c>
     </row>
     <row r="13">
@@ -5707,16 +7546,25 @@
         <v>0.27588474554757</v>
       </c>
       <c r="D13" t="n">
+        <v>0.008724241676263183</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.866</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3406523154185217</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01077237206932624</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.422512777110402</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.1461884212001013</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.004622883785363657</v>
       </c>
     </row>
     <row r="14">
@@ -5732,16 +7580,25 @@
         <v>0.2860381329489269</v>
       </c>
       <c r="D14" t="n">
+        <v>0.009045319977806644</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.007451107300260814</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.705439331508549</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.1707150685194449</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.005398484474331548</v>
       </c>
     </row>
     <row r="15">
@@ -5757,16 +7614,25 @@
         <v>0.24923593605118</v>
       </c>
       <c r="D15" t="n">
+        <v>0.007881532326858013</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.9409999999999999</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.235624701591323</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.007451107300260814</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.599300493773347</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.1646578411659441</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.005206938126906182</v>
       </c>
     </row>
     <row r="16">
@@ -5782,16 +7648,25 @@
         <v>0.2834335954425112</v>
       </c>
       <c r="D16" t="n">
+        <v>0.008962957270090555</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.972</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.1649727250184102</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.005216895628628198</v>
+      </c>
+      <c r="H16" t="n">
         <v>2.067690256958883</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.2118626724757919</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.006699685961937669</v>
       </c>
     </row>
     <row r="17">
@@ -5807,16 +7682,25 @@
         <v>0.2400674931074822</v>
       </c>
       <c r="D17" t="n">
+        <v>0.007591600703864175</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.981</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.1365247230357931</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.004317290817167638</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.938981043172993</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.2037201681151086</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.006442197365561545</v>
       </c>
     </row>
   </sheetData>
@@ -5830,7 +7714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5856,22 +7740,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -5888,16 +7787,25 @@
         <v>0.0630458355415059</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001993684372995538</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.989</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1043024448419116</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.003298332912245215</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.5285190334194226</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.02593555709821197</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0008201543281569717</v>
       </c>
     </row>
     <row r="3">
@@ -5913,16 +7821,25 @@
         <v>0.06318397083112215</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001998052594399881</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.996</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.063118935352238</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.001995995991979944</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.5640810317240912</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.0274329597134965</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0008675063565428914</v>
       </c>
     </row>
     <row r="4">
@@ -5938,16 +7855,25 @@
         <v>0.06111487118437887</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001932621918504295</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.991</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.5224842217594795</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.02466760979432405</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0007800583138234165</v>
       </c>
     </row>
     <row r="5">
@@ -5963,16 +7889,25 @@
         <v>0.06207424105719568</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001962959857670767</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.992</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.08908422980528033</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.002817090697865441</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.5565023391226355</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.02633492885936629</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0008327835721409757</v>
       </c>
     </row>
     <row r="6">
@@ -5988,16 +7923,25 @@
         <v>0.05033597913635024</v>
       </c>
       <c r="D6" t="n">
+        <v>0.00159176342325582</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.994</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.07722693830523131</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.002442130217658346</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.4561383171098731</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01812746936763272</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0005732409141665157</v>
       </c>
     </row>
     <row r="7">
@@ -6013,16 +7957,25 @@
         <v>0.0714548942327802</v>
       </c>
       <c r="D7" t="n">
+        <v>0.002259602157420152</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.889</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.314132137801913</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.009933730417119242</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.3810453089856101</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.02368834225867846</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0007490911553104146</v>
       </c>
     </row>
     <row r="8">
@@ -6038,16 +7991,25 @@
         <v>0.06562746854644214</v>
       </c>
       <c r="D8" t="n">
+        <v>0.00207532277677817</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.894</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3078376195334157</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.009734680272099337</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.3533015433208987</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.02188885819691225</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0006921864728268913</v>
       </c>
     </row>
     <row r="9">
@@ -6063,16 +8025,25 @@
         <v>0.06552953876819516</v>
       </c>
       <c r="D9" t="n">
+        <v>0.002072225965278013</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.909</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2876091097305508</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.009094998625618368</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.3729982939243272</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.02172148080286867</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.000686893534886879</v>
       </c>
     </row>
     <row r="10">
@@ -6088,16 +8059,25 @@
         <v>0.06398917764389196</v>
       </c>
       <c r="D10" t="n">
+        <v>0.002072225965278013</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.894</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3078376195334157</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.009734680272099337</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.3476739494388781</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.02067605746907257</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0006538343463480575</v>
       </c>
     </row>
     <row r="11">
@@ -6113,16 +8093,25 @@
         <v>0.05451593729847265</v>
       </c>
       <c r="D11" t="n">
+        <v>0.001723945306421002</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.899</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.3013287241535397</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.009528850927577784</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.3007349339295722</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.01453859569894947</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0004597507638900798</v>
       </c>
     </row>
     <row r="12">
@@ -6138,16 +8127,25 @@
         <v>0.07406824506126568</v>
       </c>
       <c r="D12" t="n">
+        <v>0.002342243566851174</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.846</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.3609487498246807</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01141420168036293</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.3446061826727486</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.01870086000281663</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0005913731181284341</v>
       </c>
     </row>
     <row r="13">
@@ -6163,16 +8161,25 @@
         <v>0.06712095553911997</v>
       </c>
       <c r="D13" t="n">
+        <v>0.002122550982305141</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.857</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.3500728495613449</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01107027551599327</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.3356543872746086</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.01768568714245856</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0005592705335532384</v>
       </c>
     </row>
     <row r="14">
@@ -6188,16 +8195,25 @@
         <v>0.07026504404083946</v>
       </c>
       <c r="D14" t="n">
+        <v>0.002221975790610939</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.912</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.2832948993540124</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.008958571314668427</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.3873843908187872</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.02104974059707353</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0006656512444246503</v>
       </c>
     </row>
     <row r="15">
@@ -6213,16 +8229,25 @@
         <v>0.06452573881921314</v>
       </c>
       <c r="D15" t="n">
+        <v>0.002040483023738573</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.918</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.2743647207641682</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.008676174272108645</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.3773612947564502</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.01986632918139561</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.000628228489598785</v>
       </c>
     </row>
     <row r="16">
@@ -6238,16 +8263,25 @@
         <v>0.07417571259076089</v>
       </c>
       <c r="D16" t="n">
+        <v>0.002345641988528335</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.948</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.007021111023192841</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.4696643839870475</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.02743183432282325</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0008674707685650415</v>
       </c>
     </row>
     <row r="17">
@@ -6263,16 +8297,25 @@
         <v>0.06792774253245498</v>
       </c>
       <c r="D17" t="n">
+        <v>0.002148063827160518</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.949</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.00695693898205238</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.4575160743882045</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.0260180017196823</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0008227614560037382</v>
       </c>
     </row>
   </sheetData>
@@ -6286,7 +8329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6312,22 +8355,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -6344,16 +8402,25 @@
         <v>0.04122111465251745</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001303526099928954</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.991</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.3514124247840086</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.02088063159548896</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0006603035482462078</v>
       </c>
     </row>
     <row r="3">
@@ -6369,16 +8436,25 @@
         <v>0.0412293023649065</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001303785018128712</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.991</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.3514799440710429</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.02091202062895513</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0006612961566392513</v>
       </c>
     </row>
     <row r="4">
@@ -6394,16 +8470,25 @@
         <v>0.04180157558221063</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001321881886234647</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.991</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.09444045743218316</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.002986469487538756</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.3475342976707224</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.02089526547766401</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0006607663122330446</v>
       </c>
     </row>
     <row r="5">
@@ -6419,16 +8504,25 @@
         <v>0.04207937922243889</v>
       </c>
       <c r="D5" t="n">
+        <v>0.00133066680868872</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.992</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.08908422980528033</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.002817090697865441</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.3500540179003668</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.02120273844543524</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0006704894612039309</v>
       </c>
     </row>
     <row r="6">
@@ -6444,16 +8538,25 @@
         <v>0.04000297601200037</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001265005173830003</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.98</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.14</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.004427188724235731</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.3117195116469518</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01572743803762255</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0004973452595805621</v>
       </c>
     </row>
     <row r="7">
@@ -6469,16 +8572,25 @@
         <v>12.10658391140604</v>
       </c>
       <c r="D7" t="n">
+        <v>0.3828437984399325</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.959</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.198290191386261</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.006270486424512855</v>
+      </c>
+      <c r="H7" t="n">
         <v>9.208202249108952</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>152.5043234149184</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.822610150140901</v>
       </c>
     </row>
     <row r="8">
@@ -6494,16 +8606,25 @@
         <v>11.7489391750705</v>
       </c>
       <c r="D8" t="n">
+        <v>0.3715340788400255</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.96</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.1959591794226543</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.006196773353931867</v>
+      </c>
+      <c r="H8" t="n">
         <v>12.65880119276771</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>250.5107658181327</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7.921845983783535</v>
       </c>
     </row>
     <row r="9">
@@ -6519,16 +8640,25 @@
         <v>6.372614818348181</v>
       </c>
       <c r="D9" t="n">
+        <v>0.2015197747692043</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.952</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2137662274541982</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.006759881655768835</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.482787550720812</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>29.32977253432738</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.9274888446312357</v>
       </c>
     </row>
     <row r="10">
@@ -6544,16 +8674,25 @@
         <v>10.93242262097964</v>
       </c>
       <c r="D10" t="n">
+        <v>0.3457135582584335</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.948</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.007021111023192841</v>
+      </c>
+      <c r="H10" t="n">
         <v>15.27865835368309</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>344.3216382471306</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10.88840624541479</v>
       </c>
     </row>
     <row r="11">
@@ -6569,16 +8708,25 @@
         <v>6.216767339065117</v>
       </c>
       <c r="D11" t="n">
+        <v>0.1965914447479004</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.948</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.2220270253820467</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.00702111102319284</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.777674326680056</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>13.69200392360605</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.4329791813055722</v>
       </c>
     </row>
     <row r="12">
@@ -6594,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>1</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -6605,6 +8753,15 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6619,16 +8776,25 @@
         <v>0.003851381115654094</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0001217913646282731</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.999</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.03160696125855822</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.0009994998749374611</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.0001569695945168118</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.004961331892664463</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0001568910900885374</v>
       </c>
     </row>
     <row r="14">
@@ -6644,10 +8810,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -6655,6 +8821,15 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6669,16 +8844,25 @@
         <v>0.004702426155498715</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.999</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.03160696125855823</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.0009994998749374613</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.0001625474347193753</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.005137630471853316</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0001624661406734207</v>
       </c>
     </row>
     <row r="16">
@@ -6694,10 +8878,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
         <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -6705,6 +8889,15 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6719,16 +8912,25 @@
         <v>0.0568545501341133</v>
       </c>
       <c r="D17" t="n">
+        <v>0.001797898737680296</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.949</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.00695693898205238</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.3796257340984465</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.02093662516925412</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0006620742205205132</v>
       </c>
     </row>
     <row r="18">
@@ -6744,16 +8946,25 @@
         <v>0.05581192424248832</v>
       </c>
       <c r="D18" t="n">
+        <v>0.001764928012030308</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.953</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.3726035360300136</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.01995503112637114</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.000631033491388881</v>
       </c>
     </row>
     <row r="19">
@@ -6769,16 +8980,25 @@
         <v>0.06529573427351849</v>
       </c>
       <c r="D19" t="n">
+        <v>0.002064832417974383</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.946</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.2260176984220484</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.007147307185227175</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.4354031063787129</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.02405272349690977</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0007606139018048482</v>
       </c>
     </row>
     <row r="20">
@@ -6794,16 +9014,25 @@
         <v>0.0638538194209622</v>
       </c>
       <c r="D20" t="n">
+        <v>0.002019235066713346</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.951</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.2158680152315298</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.006826346021115543</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.4273271384460041</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.02327019154334014</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0007358680686534365</v>
       </c>
     </row>
     <row r="21">
@@ -6819,16 +9048,25 @@
         <v>0.07463472766811005</v>
       </c>
       <c r="D21" t="n">
+        <v>0.002360157319776152</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.949</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.2199977272609878</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.006956938982052379</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.4882633413096619</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.02655270515494544</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0008396702632852173</v>
       </c>
     </row>
     <row r="22">
@@ -6844,16 +9082,25 @@
         <v>0.07152444512193261</v>
       </c>
       <c r="D22" t="n">
+        <v>0.002261801549650267</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.953</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.2116388433156825</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.006692607862410586</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.4791699360390683</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.02556446897584163</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0008084194913637161</v>
       </c>
     </row>
   </sheetData>
@@ -6867,7 +9114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6893,22 +9140,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -6925,16 +9187,25 @@
         <v>0.133336213201201</v>
       </c>
       <c r="D2" t="n">
+        <v>0.004216461282976061</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.976</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1530490117576719</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.004839834707921336</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.077558927083093</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.04954777920365933</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.001566838352866873</v>
       </c>
     </row>
     <row r="3">
@@ -6950,16 +9221,25 @@
         <v>0.1325184658845939</v>
       </c>
       <c r="D3" t="n">
+        <v>0.004190601842266368</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.977</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.1499033021650958</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.004740358636221526</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.096205832825045</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.04971145306285352</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001572014174751707</v>
       </c>
     </row>
     <row r="4">
@@ -6975,16 +9255,25 @@
         <v>0.1337600829038989</v>
       </c>
       <c r="D4" t="n">
+        <v>0.0042298652198927</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.974</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1591351626762608</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.005032295698784005</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.053835162411309</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.0476831360975041</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.001507873160479057</v>
       </c>
     </row>
     <row r="5">
@@ -7000,16 +9289,25 @@
         <v>0.1332634132716139</v>
       </c>
       <c r="D5" t="n">
+        <v>0.004214159147066109</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.979</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.1433840995368733</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.004534203347888138</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.070704078231564</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.047472938460319</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.00150122612755615</v>
       </c>
     </row>
     <row r="6">
@@ -7025,16 +9323,25 @@
         <v>0.08661938817632259</v>
       </c>
       <c r="D6" t="n">
+        <v>0.00273914556167438</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.992</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.08908422980528034</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.002817090697865441</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.8580002112703535</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.02484657008025318</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0007857175349659269</v>
       </c>
     </row>
     <row r="7">
@@ -7050,16 +9357,25 @@
         <v>0.4189549634140329</v>
       </c>
       <c r="D7" t="n">
+        <v>0.01324851921420857</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.988</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.1088852607105296</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.003443254274665176</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.282809916313659</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.6790111071092813</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.02147221655017879</v>
       </c>
     </row>
     <row r="8">
@@ -7075,16 +9391,25 @@
         <v>2.445290705485311</v>
       </c>
       <c r="D8" t="n">
+        <v>0.07732688170573575</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.875</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.3307189138830738</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.01045825033167595</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.086954296613985</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>9.741202053881008</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3080438563817424</v>
       </c>
     </row>
     <row r="9">
@@ -7100,16 +9425,25 @@
         <v>0.1299414167678173</v>
       </c>
       <c r="D9" t="n">
+        <v>0.004109108393754975</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.993</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.08337265738837882</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.002636474919281425</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.287218078473741</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.7859349529792725</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.02485344544151839</v>
       </c>
     </row>
     <row r="10">
@@ -7125,16 +9459,25 @@
         <v>4.823883000047783</v>
       </c>
       <c r="D10" t="n">
+        <v>0.1525445744631713</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.893</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.3091132478558627</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.009775019181566858</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.8027666393425976</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.7065396799973216</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.02234274646078046</v>
       </c>
     </row>
     <row r="11">
@@ -7150,16 +9493,25 @@
         <v>1.768987539171546</v>
       </c>
       <c r="D11" t="n">
+        <v>0.05594029776238416</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.975</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.15612494995996</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.004937104414532875</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.125310651585499</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>2.146579953144051</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.06788081831592718</v>
       </c>
     </row>
     <row r="12">
@@ -7175,16 +9527,25 @@
         <v>0.2006657989327571</v>
       </c>
       <c r="D12" t="n">
+        <v>0.006345609731248975</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.24</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.4270831300812524</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01350555441290731</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.4076325821646966</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.610932743718445</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.01931938967326212</v>
       </c>
     </row>
     <row r="13">
@@ -7200,16 +9561,25 @@
         <v>0.1376202164617568</v>
       </c>
       <c r="D13" t="n">
+        <v>0.0043519333610455</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.347</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.4760157560417512</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01505293991218991</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.3758941973112968</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.418510220417531</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01323445520578503</v>
       </c>
     </row>
     <row r="14">
@@ -7225,16 +9595,25 @@
         <v>0.1832386231210271</v>
       </c>
       <c r="D14" t="n">
+        <v>0.005794514043756371</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.237</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.4252422838806132</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.01344734174474643</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.3840042784223069</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.5832092825165364</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01844269685304872</v>
       </c>
     </row>
     <row r="15">
@@ -7250,16 +9629,25 @@
         <v>0.124152452553845</v>
       </c>
       <c r="D15" t="n">
+        <v>0.005794514043756371</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.352</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.4775939698111775</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.01510284741365018</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.3699870894068363</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.4208270983979773</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.01330772132057404</v>
       </c>
     </row>
     <row r="16">
@@ -7275,16 +9663,25 @@
         <v>0.1192227424243341</v>
       </c>
       <c r="D16" t="n">
+        <v>0.003770154149524807</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.371</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.4830724583331159</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.01527609243229433</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.3285836332760572</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.333174977897164</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01053591789531295</v>
       </c>
     </row>
     <row r="17">
@@ -7300,16 +9697,25 @@
         <v>0.325448405720848</v>
       </c>
       <c r="D17" t="n">
+        <v>0.01029158222948453</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.956</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.2050950998927083</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.006485676526007137</v>
+      </c>
+      <c r="H17" t="n">
         <v>2.21819125703426</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.2257427027776253</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.007138611059397147</v>
       </c>
     </row>
     <row r="18">
@@ -7325,16 +9731,25 @@
         <v>0.3120795746021351</v>
       </c>
       <c r="D18" t="n">
+        <v>0.009868822669591829</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.954</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.2094850830011531</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.006624499981130651</v>
+      </c>
+      <c r="H18" t="n">
         <v>2.080569781218709</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.2175405092007373</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.006879234924271452</v>
       </c>
     </row>
     <row r="19">
@@ -7350,16 +9765,25 @@
         <v>0.2943783374481345</v>
       </c>
       <c r="D19" t="n">
+        <v>0.009309060401497444</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.99</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.09949874371066199</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.003146426544510454</v>
+      </c>
+      <c r="H19" t="n">
         <v>2.544442031543745</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.2617541369986899</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.008277392598876106</v>
       </c>
     </row>
     <row r="20">
@@ -7375,16 +9799,25 @@
         <v>0.2774151719384757</v>
       </c>
       <c r="D20" t="n">
+        <v>0.008772638008128116</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.986</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.1174904251417961</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.003715373467095872</v>
+      </c>
+      <c r="H20" t="n">
         <v>2.386447193411632</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.2534831816297529</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.008015842024961714</v>
       </c>
     </row>
     <row r="21">
@@ -7400,16 +9833,25 @@
         <v>0.3112507356671834</v>
       </c>
       <c r="D21" t="n">
+        <v>0.009842612481113075</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.994</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.07722693830523129</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.002442130217658346</v>
+      </c>
+      <c r="H21" t="n">
         <v>2.853239358765604</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.2920100919668857</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.009234169903705966</v>
       </c>
     </row>
     <row r="22">
@@ -7425,16 +9867,25 @@
         <v>0.2815997502151866</v>
       </c>
       <c r="D22" t="n">
+        <v>0.008904965992144803</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.997</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.05469003565550128</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.001729450779872038</v>
+      </c>
+      <c r="H22" t="n">
         <v>2.675674979340385</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.2803994981882275</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.008867010690430556</v>
       </c>
     </row>
   </sheetData>
@@ -7448,7 +9899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7474,22 +9925,37 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Coverage Probability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CI length</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>StdErr</t>
         </is>
       </c>
     </row>
@@ -7506,16 +9972,25 @@
         <v>0.05252277986514945</v>
       </c>
       <c r="D2" t="n">
+        <v>0.001660916134175037</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.984</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.125475097130865</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>0.003967870965643919</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.4362601714909152</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.02315578224539497</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.000732250128983361</v>
       </c>
     </row>
     <row r="3">
@@ -7531,16 +10006,25 @@
         <v>0.05250582550771007</v>
       </c>
       <c r="D3" t="n">
+        <v>0.001660379990317306</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.984</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.125475097130865</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0.003967870965643919</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.4369340215793457</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.02314353733411091</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.000731862910889318</v>
       </c>
     </row>
     <row r="4">
@@ -7556,16 +10040,25 @@
         <v>0.05251663033121157</v>
       </c>
       <c r="D4" t="n">
+        <v>0.001660721668837115</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.983</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1292710331048685</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>0.004087909000944127</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.4314436693808411</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.02226271803690475</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0007040089590273155</v>
       </c>
     </row>
     <row r="5">
@@ -7581,16 +10074,25 @@
         <v>0.05345109728602632</v>
       </c>
       <c r="D5" t="n">
+        <v>0.001690272108590877</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.984</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.125475097130865</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0.003967870965643919</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.4329233403599692</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.02239450340358521</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0007081763782372224</v>
       </c>
     </row>
     <row r="6">
@@ -7606,16 +10108,25 @@
         <v>0.04545385404799801</v>
       </c>
       <c r="D6" t="n">
+        <v>0.001437377072245382</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.988</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.1088852607105296</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0.003443254274665176</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.3814575130341624</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.01666306160715427</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0005269322747031338</v>
       </c>
     </row>
     <row r="7">
@@ -7631,16 +10142,25 @@
         <v>0.09750755515854462</v>
       </c>
       <c r="D7" t="n">
+        <v>0.003083459633755017</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.976</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.1530490117576719</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0.004839834707921336</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.7794382796640953</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.2835027413362745</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.008965143855241952</v>
       </c>
     </row>
     <row r="8">
@@ -7656,16 +10176,25 @@
         <v>0.1902734667735198</v>
       </c>
       <c r="D8" t="n">
+        <v>0.00601697533300692</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.962</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.19119623427254</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>0.006046155803483731</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.7166004950103189</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.3922494020721543</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01240401521387178</v>
       </c>
     </row>
     <row r="9">
@@ -7681,16 +10210,25 @@
         <v>0.09925183998326476</v>
       </c>
       <c r="D9" t="n">
+        <v>0.003138618763096849</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.984</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.125475097130865</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
+        <v>0.003967870965643919</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.7934370286464492</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.3427670145802371</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01083924472849693</v>
       </c>
     </row>
     <row r="10">
@@ -7706,16 +10244,25 @@
         <v>2.526662097549053</v>
       </c>
       <c r="D10" t="n">
+        <v>0.07990007105873549</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.966</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.181229136730273</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0.005730968504537431</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.869534507207715</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>36.00394892211616</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.138544833542513</v>
       </c>
     </row>
     <row r="11">
@@ -7731,16 +10278,25 @@
         <v>4.511241983390059</v>
       </c>
       <c r="D11" t="n">
+        <v>0.1426579974368808</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.959</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.198290191386261</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
+        <v>0.006270486424512856</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.137650929270822</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>4.585957468870138</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1450207085429036</v>
       </c>
     </row>
     <row r="12">
@@ -7756,16 +10312,25 @@
         <v>0.04395179233582972</v>
       </c>
       <c r="D12" t="n">
+        <v>0.001389877710279541</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.305</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.4604074282632721</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
+        <v>0.01455936124972521</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.1383582068584239</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.19945566844917</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.006307342045307612</v>
       </c>
     </row>
     <row r="13">
@@ -7781,16 +10346,25 @@
         <v>0.04098132859596768</v>
       </c>
       <c r="D13" t="n">
+        <v>0.001295943399030482</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.322</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.4672429774753174</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
+        <v>0.01477552029540754</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.1394527895081424</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>0.1916089804608709</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.006059207983990515</v>
       </c>
     </row>
     <row r="14">
@@ -7806,16 +10380,25 @@
         <v>0.04330591357965745</v>
       </c>
       <c r="D14" t="n">
+        <v>0.001369453230661332</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.302</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.4591252552408764</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
+        <v>0.01451881537867329</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.1343888535775576</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>0.1948210639727424</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.00616078298331238</v>
       </c>
     </row>
     <row r="15">
@@ -7831,16 +10414,25 @@
         <v>0.04126462450027176</v>
       </c>
       <c r="D15" t="n">
+        <v>0.001369453230661332</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.33</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.47021271782035</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
+        <v>0.01486943173090351</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.1420742327708049</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>0.1913078294871023</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.00604968475402365</v>
       </c>
     </row>
     <row r="16">
@@ -7856,16 +10448,25 @@
         <v>0.03784981444644415</v>
       </c>
       <c r="D16" t="n">
+        <v>0.001196916226655087</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.363</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.4808648458766766</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0.01520628159676125</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.1353414335477452</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>0.1704331731546983</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.005389570160187117</v>
       </c>
     </row>
     <row r="17">
@@ -7881,16 +10482,25 @@
         <v>0.07553444273427447</v>
       </c>
       <c r="D17" t="n">
+        <v>0.002388608808318639</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.96</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.1959591794226543</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
+        <v>0.006196773353931867</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.5038483264695012</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>0.02851782770429585</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0009018128946582568</v>
       </c>
     </row>
     <row r="18">
@@ -7906,16 +10516,25 @@
         <v>0.07447866944018293</v>
       </c>
       <c r="D18" t="n">
+        <v>0.002355222325297559</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.954</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.2094850830011531</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
+        <v>0.006624499981130651</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.4908870661937256</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>0.02678009009247932</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.000846860806367439</v>
       </c>
     </row>
     <row r="19">
@@ -7931,16 +10550,25 @@
         <v>0.07726298044953012</v>
       </c>
       <c r="D19" t="n">
+        <v>0.002443269970335753</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.975</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.15612494995996</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
+        <v>0.004937104414532875</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.5779156843931983</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>0.03347355271788448</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.001058526679662346</v>
       </c>
     </row>
     <row r="20">
@@ -7956,16 +10584,25 @@
         <v>0.07664783059704047</v>
       </c>
       <c r="D20" t="n">
+        <v>0.002423817223973914</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.97</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.1705872210923198</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0.005394441583704472</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.5630024320027943</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>0.0315691231770702</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0009983033297395289</v>
       </c>
     </row>
     <row r="21">
@@ -7981,16 +10618,25 @@
         <v>0.08436894653369241</v>
       </c>
       <c r="D21" t="n">
+        <v>0.00266798034835436</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.981</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.1365247230357931</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
+        <v>0.004317290817167638</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.6480658652082333</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>0.03682815661856396</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.00116460856940067</v>
       </c>
     </row>
     <row r="22">
@@ -8006,16 +10652,25 @@
         <v>0.08352691035916182</v>
       </c>
       <c r="D22" t="n">
+        <v>0.002641352826516642</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.977</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.1499033021650957</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
+        <v>0.004740358636221525</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.6312994019844401</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>0.03464857450052358</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.001095684130996855</v>
       </c>
     </row>
   </sheetData>
